--- a/data/trans_camb/P16A15-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A15-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,28</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,19</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,36</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,28; 13,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,9; 12,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,71; 16,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,16; 12,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,37; 12,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,87; 18,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,11; 11,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,79; 11,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,09; 16,82</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,45%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,56; 129,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,42; 131,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>69,67; 168,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,44; 86,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,33; 89,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,29; 134,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,8; 92,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,54; 93,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>82,18; 133,35</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,48</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,99</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,44; 4,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,97; 4,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,94; 9,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 3,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 4,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,66; 27,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,38; 3,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,17; 4,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,39; 17,67</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>233,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>316,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>277,27%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,78; 156,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,46; 176,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>151,88; 357,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,58; 129,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,2; 166,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>153,53; 921,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,33; 126,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,97; 151,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>180,55; 553,65</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,11</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 6,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 3,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,05; 8,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 3,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 3,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,47; 8,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 4,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 2,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,42; 8,04</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,63%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>149,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>283,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,91%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>198,45%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,82; 237,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,27; 139,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,94; 310,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,82; 270,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,58; 198,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>113,08; 625,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,1; 167,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,11; 116,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>109,44; 356,27</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,78</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,15; 5,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,33; 4,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,36; 8,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,93; 5,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,78; 4,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,78; 18,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,48; 5,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,33; 4,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,15; 12,62</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,13%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,96%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,74%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,85%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,54%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,71%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,73%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,17%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,47; 113,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,29; 90,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,3; 153,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,9; 81,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,24; 65,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>70,28; 238,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,47; 82,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,13; 68,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>86,29; 193,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A15-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,59</t>
+          <t>12,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,19</t>
+          <t>15,13</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,36</t>
+          <t>14,21</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,71; 16,37</t>
+          <t>8,63; 16,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,87; 18,51</t>
+          <t>11,97; 18,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,09; 16,82</t>
+          <t>11,96; 16,71</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>111,33%</t>
+          <t>110,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>98,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>105,45%</t>
+          <t>104,41%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,67; 168,69</t>
+          <t>68,58; 166,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,29; 134,01</t>
+          <t>70,54; 133,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>82,18; 133,35</t>
+          <t>81,3; 132,47</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,48</t>
+          <t>14,07</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,99</t>
+          <t>10,09</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,94; 9,16</t>
+          <t>3,55; 8,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,66; 27,97</t>
+          <t>5,31; 40,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,39; 17,67</t>
+          <t>5,45; 24,69</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>233,64%</t>
+          <t>195,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>316,78%</t>
+          <t>425,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>277,27%</t>
+          <t>311,38%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>151,88; 357,57</t>
+          <t>102,7; 309,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>153,53; 921,7</t>
+          <t>148,92; 1398,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>180,55; 553,65</t>
+          <t>158,75; 809,87</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,82</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,11</t>
+          <t>5,93</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,05; 8,1</t>
+          <t>2,92; 7,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,47; 8,85</t>
+          <t>4,33; 8,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,42; 8,04</t>
+          <t>4,27; 7,81</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>149,85%</t>
+          <t>144,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>283,52%</t>
+          <t>277,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>198,45%</t>
+          <t>192,69%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>52,94; 310,33</t>
+          <t>51,57; 306,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>113,08; 625,1</t>
+          <t>109,38; 618,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>109,44; 356,27</t>
+          <t>104,99; 344,1</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,73</t>
+          <t>10,69</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,78</t>
+          <t>8,25</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,04</t>
+          <t>2,82; 7,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,78; 18,9</t>
+          <t>5,42; 28,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,15; 12,62</t>
+          <t>5,28; 16,23</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>113,74%</t>
+          <t>96,81%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>110,54%</t>
+          <t>135,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>113,17%</t>
+          <t>120,0%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>81,3; 153,08</t>
+          <t>50,2; 136,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>70,28; 238,58</t>
+          <t>67,3; 359,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>86,29; 193,65</t>
+          <t>76,06; 258,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A15-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,28; 13,04</t>
+          <t>6,66; 13,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,9; 12,83</t>
+          <t>6,31; 12,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,63; 16,29</t>
+          <t>8,97; 16,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,16; 12,27</t>
+          <t>6,15; 12,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 12,56</t>
+          <t>5,68; 12,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,97; 18,43</t>
+          <t>11,87; 18,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,11; 11,68</t>
+          <t>7,21; 11,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 11,75</t>
+          <t>6,66; 11,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,96; 16,71</t>
+          <t>11,75; 16,62</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,56; 129,44</t>
+          <t>50,93; 128,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46,42; 131,37</t>
+          <t>51,01; 128,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,58; 166,4</t>
+          <t>69,79; 158,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,44; 86,63</t>
+          <t>36,82; 88,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,33; 89,35</t>
+          <t>35,11; 90,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>70,54; 133,17</t>
+          <t>69,16; 132,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>47,8; 92,35</t>
+          <t>49,34; 92,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,54; 93,3</t>
+          <t>44,69; 93,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>81,3; 132,47</t>
+          <t>80,47; 131,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,16</t>
+          <t>1,46; 4,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,64</t>
+          <t>1,93; 4,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 8,07</t>
+          <t>3,02; 7,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,39</t>
+          <t>0,51; 3,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,51</t>
+          <t>1,54; 4,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 40,96</t>
+          <t>5,33; 37,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,43</t>
+          <t>1,34; 3,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,31</t>
+          <t>2,06; 4,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,45; 24,69</t>
+          <t>5,58; 23,86</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,78; 156,13</t>
+          <t>36,15; 162,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52,46; 176,29</t>
+          <t>49,84; 184,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>102,7; 309,23</t>
+          <t>96,76; 310,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,58; 129,23</t>
+          <t>12,38; 134,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,2; 166,85</t>
+          <t>38,58; 170,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>148,92; 1398,06</t>
+          <t>153,23; 1347,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,33; 126,33</t>
+          <t>33,92; 116,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>55,97; 151,09</t>
+          <t>55,28; 147,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>158,75; 809,87</t>
+          <t>170,0; 781,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 6,24</t>
+          <t>0,11; 6,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,66</t>
+          <t>-1,33; 3,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,92; 7,88</t>
+          <t>2,64; 7,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,74</t>
+          <t>-0,87; 3,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 3,02</t>
+          <t>-1,59; 2,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,33; 8,71</t>
+          <t>4,53; 8,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 4,08</t>
+          <t>0,24; 4,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,62</t>
+          <t>-0,83; 2,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,27; 7,81</t>
+          <t>4,1; 7,6</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,82; 237,76</t>
+          <t>-2,1; 223,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,27; 139,44</t>
+          <t>-30,31; 146,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>51,57; 306,88</t>
+          <t>48,01; 300,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 270,49</t>
+          <t>-29,71; 248,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,58; 198,85</t>
+          <t>-49,61; 189,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>109,38; 618,34</t>
+          <t>107,16; 635,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 167,47</t>
+          <t>4,66; 174,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 116,4</t>
+          <t>-22,16; 102,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>104,99; 344,1</t>
+          <t>96,42; 315,63</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,15; 5,9</t>
+          <t>3,06; 5,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,86</t>
+          <t>2,28; 4,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,82; 7,1</t>
+          <t>3,11; 7,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,93; 5,89</t>
+          <t>2,91; 5,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,73</t>
+          <t>1,68; 4,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,42; 28,67</t>
+          <t>5,27; 24,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,48; 5,36</t>
+          <t>3,44; 5,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,29</t>
+          <t>2,28; 4,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,28; 16,23</t>
+          <t>5,4; 17,2</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>49,47; 113,3</t>
+          <t>48,37; 112,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>35,29; 90,94</t>
+          <t>34,73; 91,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>50,2; 136,08</t>
+          <t>55,02; 135,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>34,9; 81,06</t>
+          <t>33,97; 80,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,24; 65,5</t>
+          <t>19,13; 62,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>67,3; 359,5</t>
+          <t>64,77; 338,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>47,47; 82,82</t>
+          <t>46,76; 84,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>32,13; 68,03</t>
+          <t>31,58; 66,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>76,06; 258,06</t>
+          <t>77,17; 246,22</t>
         </is>
       </c>
     </row>
